--- a/data/pca/factorExposure/factorExposure_2018-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01063199793007451</v>
+        <v>-0.0148511704829658</v>
       </c>
       <c r="C2">
-        <v>-0.02685864470854212</v>
+        <v>-0.0003537339113311565</v>
       </c>
       <c r="D2">
-        <v>-0.02961016733662059</v>
+        <v>0.03717661683139208</v>
       </c>
       <c r="E2">
-        <v>0.004105687944734804</v>
+        <v>0.01984477037648704</v>
       </c>
       <c r="F2">
-        <v>-0.09720285970415471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0008810997391997266</v>
+      </c>
+      <c r="G2">
+        <v>-0.03244124023819669</v>
+      </c>
+      <c r="H2">
+        <v>-0.04930354530961856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08891891806751244</v>
+        <v>-0.0676437625439969</v>
       </c>
       <c r="C3">
-        <v>-0.04504345911595869</v>
+        <v>0.04874412082514051</v>
       </c>
       <c r="D3">
-        <v>-0.03426524468853082</v>
+        <v>0.06550489085505143</v>
       </c>
       <c r="E3">
-        <v>0.04976427831916416</v>
+        <v>0.01021997444163482</v>
       </c>
       <c r="F3">
-        <v>-0.3386501667341968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03848453038286128</v>
+      </c>
+      <c r="G3">
+        <v>-0.1437024008187426</v>
+      </c>
+      <c r="H3">
+        <v>-0.124136710544698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04382964497828408</v>
+        <v>-0.03601776500974026</v>
       </c>
       <c r="C4">
-        <v>-0.01448462846726699</v>
+        <v>0.02695016707245917</v>
       </c>
       <c r="D4">
-        <v>-0.03892917205008183</v>
+        <v>0.06053221517054706</v>
       </c>
       <c r="E4">
-        <v>-0.03332403734885069</v>
+        <v>-0.01539833438328194</v>
       </c>
       <c r="F4">
-        <v>-0.06191378389610678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03565579131710467</v>
+      </c>
+      <c r="G4">
+        <v>-0.04222689612417718</v>
+      </c>
+      <c r="H4">
+        <v>-0.06078935204775247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03225179824935107</v>
+        <v>-0.01939709111659734</v>
       </c>
       <c r="C6">
-        <v>-0.01227654167206075</v>
+        <v>0.02950177314696705</v>
       </c>
       <c r="D6">
-        <v>-0.03864848839016563</v>
+        <v>0.05712363729039175</v>
       </c>
       <c r="E6">
-        <v>-0.02163330078687502</v>
+        <v>-0.005043413464944664</v>
       </c>
       <c r="F6">
-        <v>-0.01068523246283309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02965258615084713</v>
+      </c>
+      <c r="G6">
+        <v>-0.01488275112645159</v>
+      </c>
+      <c r="H6">
+        <v>-0.06123396627330614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03643488877634643</v>
+        <v>-0.008716916176082784</v>
       </c>
       <c r="C7">
-        <v>0.02839804995315624</v>
+        <v>0.01373680045461763</v>
       </c>
       <c r="D7">
-        <v>-0.03720075524421461</v>
+        <v>0.03385617235079364</v>
       </c>
       <c r="E7">
-        <v>-0.01623554578049278</v>
+        <v>-0.04294828780518729</v>
       </c>
       <c r="F7">
-        <v>-0.03655027939843468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.004731974039025312</v>
+      </c>
+      <c r="G7">
+        <v>-0.02190742754445569</v>
+      </c>
+      <c r="H7">
+        <v>-0.03622882657413844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01424695845236739</v>
+        <v>-0.002187344483328712</v>
       </c>
       <c r="C8">
-        <v>-0.0003563818336173028</v>
+        <v>0.006925713777797307</v>
       </c>
       <c r="D8">
-        <v>-0.04667606419204312</v>
+        <v>0.01020222927576521</v>
       </c>
       <c r="E8">
-        <v>-0.0224256495574891</v>
+        <v>-0.008908448715211665</v>
       </c>
       <c r="F8">
-        <v>-0.06077801310762146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.007799310774202733</v>
+      </c>
+      <c r="G8">
+        <v>-0.03763457663409171</v>
+      </c>
+      <c r="H8">
+        <v>-0.03634627766030896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03120221963407786</v>
+        <v>-0.02589643048559651</v>
       </c>
       <c r="C9">
-        <v>-0.009178327194409938</v>
+        <v>0.02144939089580218</v>
       </c>
       <c r="D9">
-        <v>-0.03397231440829051</v>
+        <v>0.0438901815701865</v>
       </c>
       <c r="E9">
-        <v>-0.01320910877903852</v>
+        <v>-0.00494834691945749</v>
       </c>
       <c r="F9">
-        <v>-0.07808054388423523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.009908285431679537</v>
+      </c>
+      <c r="G9">
+        <v>-0.04249791978133356</v>
+      </c>
+      <c r="H9">
+        <v>-0.05637595013792294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04012476392106728</v>
+        <v>-0.1332868300455086</v>
       </c>
       <c r="C10">
-        <v>-0.001235820458253435</v>
+        <v>-0.06920605492930153</v>
       </c>
       <c r="D10">
-        <v>0.1439508662000388</v>
+        <v>-0.1322220765024031</v>
       </c>
       <c r="E10">
-        <v>0.04849169858580506</v>
+        <v>0.0005271416630992612</v>
       </c>
       <c r="F10">
-        <v>-0.06825161923671295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04213554673907084</v>
+      </c>
+      <c r="G10">
+        <v>-0.0274778443859645</v>
+      </c>
+      <c r="H10">
+        <v>0.008153758961507628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02960749176993212</v>
+        <v>-0.0166519776219495</v>
       </c>
       <c r="C11">
-        <v>-0.02157314495014567</v>
+        <v>0.03230156535965334</v>
       </c>
       <c r="D11">
-        <v>-0.03950083160656719</v>
+        <v>0.03829892653333145</v>
       </c>
       <c r="E11">
-        <v>-0.01682326340865957</v>
+        <v>0.001984766386643293</v>
       </c>
       <c r="F11">
-        <v>-0.02712011831915334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.00811207991534188</v>
+      </c>
+      <c r="G11">
+        <v>-0.01912662726616712</v>
+      </c>
+      <c r="H11">
+        <v>-0.05269564614563242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04131465249030579</v>
+        <v>-0.02042820038068559</v>
       </c>
       <c r="C12">
-        <v>-0.02078269242316484</v>
+        <v>0.02855231929422784</v>
       </c>
       <c r="D12">
-        <v>-0.03237470193214338</v>
+        <v>0.03937816585356788</v>
       </c>
       <c r="E12">
-        <v>-0.02593189823432231</v>
+        <v>-0.0106954887993264</v>
       </c>
       <c r="F12">
-        <v>-0.0024091424393353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01214402681861274</v>
+      </c>
+      <c r="G12">
+        <v>-0.005348057653441937</v>
+      </c>
+      <c r="H12">
+        <v>-0.02219571480097473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01006517452839233</v>
+        <v>-0.02053385301131783</v>
       </c>
       <c r="C13">
-        <v>-0.02040190058790771</v>
+        <v>0.0001488562712041053</v>
       </c>
       <c r="D13">
-        <v>-0.01475003369681431</v>
+        <v>0.03066409003570994</v>
       </c>
       <c r="E13">
-        <v>-0.008616580958349437</v>
+        <v>0.01356627910191901</v>
       </c>
       <c r="F13">
-        <v>-0.07689120311671169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01056191621970595</v>
+      </c>
+      <c r="G13">
+        <v>-0.05508987361906343</v>
+      </c>
+      <c r="H13">
+        <v>-0.07641263510241421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01959697671485195</v>
+        <v>-0.01027131539138519</v>
       </c>
       <c r="C14">
-        <v>0.003674011763924907</v>
+        <v>0.007796832528980085</v>
       </c>
       <c r="D14">
-        <v>-0.02255793052059027</v>
+        <v>0.01837426259105964</v>
       </c>
       <c r="E14">
-        <v>-0.0191382981110028</v>
+        <v>-0.01372765731602273</v>
       </c>
       <c r="F14">
-        <v>-0.04954536105089041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.00368869446249335</v>
+      </c>
+      <c r="G14">
+        <v>-0.03960125271264043</v>
+      </c>
+      <c r="H14">
+        <v>-0.01109553517778456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03102226408387814</v>
+        <v>-0.01821919290262011</v>
       </c>
       <c r="C16">
-        <v>-0.02175317481822318</v>
+        <v>0.02894471636026861</v>
       </c>
       <c r="D16">
-        <v>-0.04255351784410642</v>
+        <v>0.03299380971393192</v>
       </c>
       <c r="E16">
-        <v>-0.01974476511567394</v>
+        <v>-0.001875881425158624</v>
       </c>
       <c r="F16">
-        <v>-0.02826469334080107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01115969808201095</v>
+      </c>
+      <c r="G16">
+        <v>-0.01846667644825674</v>
+      </c>
+      <c r="H16">
+        <v>-0.03946794186035305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03325865696192959</v>
+        <v>-0.01925241675417225</v>
       </c>
       <c r="C19">
-        <v>-0.01632058294158446</v>
+        <v>0.01995168413504005</v>
       </c>
       <c r="D19">
-        <v>-0.05340718868233468</v>
+        <v>0.04086941622212903</v>
       </c>
       <c r="E19">
-        <v>-0.0315624526148884</v>
+        <v>-0.01027084281710841</v>
       </c>
       <c r="F19">
-        <v>-0.07792574589801154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01388206268513372</v>
+      </c>
+      <c r="G19">
+        <v>-0.05487671254861723</v>
+      </c>
+      <c r="H19">
+        <v>-0.05822059653699029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009815518265190721</v>
+        <v>-0.004882913231146028</v>
       </c>
       <c r="C20">
-        <v>0.007907968192027735</v>
+        <v>0.005845203400868625</v>
       </c>
       <c r="D20">
-        <v>-0.01054101368632349</v>
+        <v>0.02326788603697851</v>
       </c>
       <c r="E20">
-        <v>-0.01089031915503372</v>
+        <v>-0.003433837214643486</v>
       </c>
       <c r="F20">
-        <v>-0.05528364003042241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.003194654044602718</v>
+      </c>
+      <c r="G20">
+        <v>-0.04856199562259033</v>
+      </c>
+      <c r="H20">
+        <v>-0.03085694173177807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01485468653642321</v>
+        <v>-0.01195323848256038</v>
       </c>
       <c r="C21">
-        <v>0.01680507533134291</v>
+        <v>0.003019903563223938</v>
       </c>
       <c r="D21">
-        <v>-0.03771136992432189</v>
+        <v>0.02261871913247325</v>
       </c>
       <c r="E21">
-        <v>-0.001602504028033181</v>
+        <v>-0.01653555971828522</v>
       </c>
       <c r="F21">
-        <v>-0.02925211899954288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.006768006443787127</v>
+      </c>
+      <c r="G21">
+        <v>-0.0407753402738361</v>
+      </c>
+      <c r="H21">
+        <v>-0.05198351016891802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02866335721979946</v>
+        <v>-0.01343367841622806</v>
       </c>
       <c r="C24">
-        <v>-0.01981730792395611</v>
+        <v>0.02438907194846678</v>
       </c>
       <c r="D24">
-        <v>-0.02328410821744394</v>
+        <v>0.03617713412001203</v>
       </c>
       <c r="E24">
-        <v>-0.01486973165719673</v>
+        <v>-5.68690189476769e-06</v>
       </c>
       <c r="F24">
-        <v>-0.03080985773495149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.006718873665231323</v>
+      </c>
+      <c r="G24">
+        <v>-0.0128157092381932</v>
+      </c>
+      <c r="H24">
+        <v>-0.04728606168077627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03287411879557528</v>
+        <v>-0.02727969072449903</v>
       </c>
       <c r="C25">
-        <v>-0.01809320337536237</v>
+        <v>0.02484051979215108</v>
       </c>
       <c r="D25">
-        <v>-0.03589235955069477</v>
+        <v>0.04105169639149056</v>
       </c>
       <c r="E25">
-        <v>-0.01284462446616901</v>
+        <v>-0.006154824342693903</v>
       </c>
       <c r="F25">
-        <v>-0.03299320159200638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01564767551373462</v>
+      </c>
+      <c r="G25">
+        <v>-0.01594277996738774</v>
+      </c>
+      <c r="H25">
+        <v>-0.0475787210818233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01628132339511653</v>
+        <v>-0.01263269049919496</v>
       </c>
       <c r="C26">
-        <v>-0.01124626787000429</v>
+        <v>-0.01113371318005688</v>
       </c>
       <c r="D26">
-        <v>-0.02524293662641377</v>
+        <v>0.01983780282448015</v>
       </c>
       <c r="E26">
-        <v>0.004182580046169391</v>
+        <v>0.00029716983254783</v>
       </c>
       <c r="F26">
-        <v>-0.04991023832841295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002641838016989174</v>
+      </c>
+      <c r="G26">
+        <v>-0.023845051804842</v>
+      </c>
+      <c r="H26">
+        <v>-0.02189422776718328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03841661258968691</v>
+        <v>-0.01437624108446465</v>
       </c>
       <c r="C27">
-        <v>-0.01789830509979403</v>
+        <v>0.01146424857809327</v>
       </c>
       <c r="D27">
-        <v>-0.008791776956538723</v>
+        <v>0.009895130041969976</v>
       </c>
       <c r="E27">
-        <v>-0.03006582982921802</v>
+        <v>-0.005834376520770947</v>
       </c>
       <c r="F27">
-        <v>-0.01707523060363959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.005189875648708752</v>
+      </c>
+      <c r="G27">
+        <v>-0.008961224849956713</v>
+      </c>
+      <c r="H27">
+        <v>0.000795772002279187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07157761151967831</v>
+        <v>-0.1845712053143493</v>
       </c>
       <c r="C28">
-        <v>-0.003893151123556121</v>
+        <v>-0.09935199004884326</v>
       </c>
       <c r="D28">
-        <v>0.2096820448954915</v>
+        <v>-0.1646989112965435</v>
       </c>
       <c r="E28">
-        <v>0.07537443740969259</v>
+        <v>-0.01105185357972284</v>
       </c>
       <c r="F28">
-        <v>-0.06938169787464216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03753118245074868</v>
+      </c>
+      <c r="G28">
+        <v>-0.01627997670893698</v>
+      </c>
+      <c r="H28">
+        <v>0.008204633796531477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0213720040186194</v>
+        <v>-0.01542059401619771</v>
       </c>
       <c r="C29">
-        <v>0.002715020640885253</v>
+        <v>0.008387036187027495</v>
       </c>
       <c r="D29">
-        <v>-0.02658650203442878</v>
+        <v>0.01711079264440215</v>
       </c>
       <c r="E29">
-        <v>-0.02057795426717054</v>
+        <v>-0.01273047744363121</v>
       </c>
       <c r="F29">
-        <v>-0.04632371838737968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.003661669298474852</v>
+      </c>
+      <c r="G29">
+        <v>-0.03917034297952676</v>
+      </c>
+      <c r="H29">
+        <v>-0.008041748485901399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05237447734210187</v>
+        <v>-0.03560739349798333</v>
       </c>
       <c r="C30">
-        <v>-0.07341743247554836</v>
+        <v>0.04186196072335552</v>
       </c>
       <c r="D30">
-        <v>-0.06262948370864631</v>
+        <v>0.08507001790244077</v>
       </c>
       <c r="E30">
-        <v>-0.03880530687048993</v>
+        <v>0.03265642325728704</v>
       </c>
       <c r="F30">
-        <v>-0.08205422927509279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03380074789416785</v>
+      </c>
+      <c r="G30">
+        <v>-0.05660178728862689</v>
+      </c>
+      <c r="H30">
+        <v>-0.07621935435345666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05367055404745049</v>
+        <v>-0.04436181173438341</v>
       </c>
       <c r="C31">
-        <v>-0.03576440943888595</v>
+        <v>0.02207185831616336</v>
       </c>
       <c r="D31">
-        <v>-0.02403662227825664</v>
+        <v>0.02374380056089729</v>
       </c>
       <c r="E31">
-        <v>-0.01928475734214843</v>
+        <v>0.002332724625997823</v>
       </c>
       <c r="F31">
-        <v>-0.02867209428091253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.000517310171709097</v>
+      </c>
+      <c r="G31">
+        <v>-0.01629202140701425</v>
+      </c>
+      <c r="H31">
+        <v>-0.005517232234037687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0233935075133393</v>
+        <v>-0.008462429944755736</v>
       </c>
       <c r="C32">
-        <v>0.01400667074723807</v>
+        <v>0.01765062080518837</v>
       </c>
       <c r="D32">
-        <v>-0.05958752590532299</v>
+        <v>0.006029317534368406</v>
       </c>
       <c r="E32">
-        <v>-0.03507257082698453</v>
+        <v>-0.03016042279342073</v>
       </c>
       <c r="F32">
-        <v>-0.03977526906172277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02953832490760773</v>
+      </c>
+      <c r="G32">
+        <v>-0.04108212537969338</v>
+      </c>
+      <c r="H32">
+        <v>-0.04979002979895339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03239317816401199</v>
+        <v>-0.02229482098922354</v>
       </c>
       <c r="C33">
-        <v>-0.04238748514020173</v>
+        <v>0.02265649612865127</v>
       </c>
       <c r="D33">
-        <v>-0.05423236968437749</v>
+        <v>0.04388327755590095</v>
       </c>
       <c r="E33">
-        <v>-0.0009569065217280199</v>
+        <v>0.02009094648056418</v>
       </c>
       <c r="F33">
-        <v>-0.05939434655981702</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.008363313461660919</v>
+      </c>
+      <c r="G33">
+        <v>-0.03788899506745405</v>
+      </c>
+      <c r="H33">
+        <v>-0.05184229509186872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03532528897771305</v>
+        <v>-0.02484735856159103</v>
       </c>
       <c r="C34">
-        <v>-0.0143254301415998</v>
+        <v>0.03891292565851886</v>
       </c>
       <c r="D34">
-        <v>-0.04483985962867414</v>
+        <v>0.03289924590524477</v>
       </c>
       <c r="E34">
-        <v>-0.02870239488700563</v>
+        <v>-0.01335419572539955</v>
       </c>
       <c r="F34">
-        <v>-0.0275565670333719</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01709456935612287</v>
+      </c>
+      <c r="G34">
+        <v>-0.008776458830263179</v>
+      </c>
+      <c r="H34">
+        <v>-0.03842258593760028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01778471703431429</v>
+        <v>-0.01598016617306687</v>
       </c>
       <c r="C36">
-        <v>-9.154198514372373e-05</v>
+        <v>-0.002866315109309205</v>
       </c>
       <c r="D36">
-        <v>-0.01605928130252725</v>
+        <v>0.009482551330629026</v>
       </c>
       <c r="E36">
-        <v>-0.009195994509428096</v>
+        <v>-0.007594785551124875</v>
       </c>
       <c r="F36">
-        <v>-0.02737761701877366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002537251999852766</v>
+      </c>
+      <c r="G36">
+        <v>-0.01671771433035908</v>
+      </c>
+      <c r="H36">
+        <v>-0.01682859787675986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009662699560567518</v>
+        <v>-0.02542014995151255</v>
       </c>
       <c r="C38">
-        <v>-0.006237583202815588</v>
+        <v>0.02071046398276532</v>
       </c>
       <c r="D38">
-        <v>-0.00542803603152212</v>
+        <v>0.007068633661150318</v>
       </c>
       <c r="E38">
-        <v>0.01906064727747041</v>
+        <v>0.0002506475541651646</v>
       </c>
       <c r="F38">
-        <v>-0.04306112609829858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.004562075172978844</v>
+      </c>
+      <c r="G38">
+        <v>-0.02153713026492824</v>
+      </c>
+      <c r="H38">
+        <v>-0.03681186904233739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02852800284787143</v>
+        <v>-0.007277016886822896</v>
       </c>
       <c r="C39">
-        <v>-0.02075162762170478</v>
+        <v>0.04799271164897175</v>
       </c>
       <c r="D39">
-        <v>-0.06115023684723931</v>
+        <v>0.07460982742954297</v>
       </c>
       <c r="E39">
-        <v>-0.01884341429288088</v>
+        <v>0.007139953155371421</v>
       </c>
       <c r="F39">
-        <v>-0.04597527523236113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.012376950513317</v>
+      </c>
+      <c r="G39">
+        <v>-0.0293547697663677</v>
+      </c>
+      <c r="H39">
+        <v>-0.08218911835245148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01745529636543153</v>
+        <v>-0.02546026709230479</v>
       </c>
       <c r="C40">
-        <v>-0.04829779022620315</v>
+        <v>0.01545025917057206</v>
       </c>
       <c r="D40">
-        <v>-0.02888684930954833</v>
+        <v>0.02963796406078687</v>
       </c>
       <c r="E40">
-        <v>-0.02789487717853585</v>
+        <v>0.02452889215614482</v>
       </c>
       <c r="F40">
-        <v>-0.04265580111624744</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02990106902434054</v>
+      </c>
+      <c r="G40">
+        <v>-0.01569209039010467</v>
+      </c>
+      <c r="H40">
+        <v>-0.0631164800433681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00462852824423488</v>
+        <v>-0.01246071813009702</v>
       </c>
       <c r="C41">
-        <v>0.001346452237275014</v>
+        <v>-0.007125795681624625</v>
       </c>
       <c r="D41">
-        <v>-0.007632999629599814</v>
+        <v>-0.006859094228094906</v>
       </c>
       <c r="E41">
-        <v>0.01029175581256388</v>
+        <v>-0.003885776698841084</v>
       </c>
       <c r="F41">
-        <v>-0.004561673970784048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005807624229084059</v>
+      </c>
+      <c r="G41">
+        <v>0.002287768161777212</v>
+      </c>
+      <c r="H41">
+        <v>0.003466273735383063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.239074922966093</v>
+        <v>-0.1171845409679793</v>
       </c>
       <c r="C42">
-        <v>-0.2127656178769446</v>
+        <v>0.04626426885857929</v>
       </c>
       <c r="D42">
-        <v>-0.2060784817410403</v>
+        <v>0.249437433108397</v>
       </c>
       <c r="E42">
-        <v>0.8559003576473231</v>
+        <v>0.2304880188299021</v>
       </c>
       <c r="F42">
-        <v>0.268945867598347</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8264165833014879</v>
+      </c>
+      <c r="G42">
+        <v>0.405214507599743</v>
+      </c>
+      <c r="H42">
+        <v>-0.02084328713244514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003378617514845449</v>
+        <v>-0.01325933645303085</v>
       </c>
       <c r="C43">
-        <v>-0.002434157624008757</v>
+        <v>-0.007400382664012683</v>
       </c>
       <c r="D43">
-        <v>-0.01114519816575131</v>
+        <v>-0.005928816283722384</v>
       </c>
       <c r="E43">
-        <v>0.004368164221357293</v>
+        <v>2.231792033901716e-05</v>
       </c>
       <c r="F43">
-        <v>-0.02309213698186764</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00622405067072053</v>
+      </c>
+      <c r="G43">
+        <v>-0.0003234309218268836</v>
+      </c>
+      <c r="H43">
+        <v>-0.003962038826023567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02350514245539202</v>
+        <v>-0.01296577946950691</v>
       </c>
       <c r="C44">
-        <v>0.003863959878009141</v>
+        <v>0.02457580224079433</v>
       </c>
       <c r="D44">
-        <v>-0.03980463793759444</v>
+        <v>0.03513308449137269</v>
       </c>
       <c r="E44">
-        <v>0.001944614877770521</v>
+        <v>-0.01262219796838311</v>
       </c>
       <c r="F44">
-        <v>-0.09048454746622399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01026508639173743</v>
+      </c>
+      <c r="G44">
+        <v>-0.03642881433433454</v>
+      </c>
+      <c r="H44">
+        <v>-0.06376228082086616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01838740974439789</v>
+        <v>-0.006340806952577823</v>
       </c>
       <c r="C46">
-        <v>-0.008424981669320143</v>
+        <v>0.001576494572503053</v>
       </c>
       <c r="D46">
-        <v>-0.06098255184873169</v>
+        <v>0.01749492656334475</v>
       </c>
       <c r="E46">
-        <v>-0.02464454784202954</v>
+        <v>-0.001576666001839909</v>
       </c>
       <c r="F46">
-        <v>-0.05934266824186556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.002050584674982466</v>
+      </c>
+      <c r="G46">
+        <v>-0.0405638541593883</v>
+      </c>
+      <c r="H46">
+        <v>-0.0112456164646379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08176397124959445</v>
+        <v>-0.06014467015942768</v>
       </c>
       <c r="C47">
-        <v>-0.04767611148505637</v>
+        <v>0.04977003149383111</v>
       </c>
       <c r="D47">
-        <v>-0.01625690202442189</v>
+        <v>0.04299303416290606</v>
       </c>
       <c r="E47">
-        <v>-0.02934837251019266</v>
+        <v>-0.005443452311696877</v>
       </c>
       <c r="F47">
-        <v>-0.004133815420499873</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.009664944066423044</v>
+      </c>
+      <c r="G47">
+        <v>0.002551727775115247</v>
+      </c>
+      <c r="H47">
+        <v>0.02822268687712001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0179816921831789</v>
+        <v>-0.01721700902414499</v>
       </c>
       <c r="C48">
-        <v>-0.01084886838459877</v>
+        <v>0.010783022370354</v>
       </c>
       <c r="D48">
-        <v>-0.02340039923446297</v>
+        <v>0.01136801041062258</v>
       </c>
       <c r="E48">
-        <v>-0.00973361699472393</v>
+        <v>-0.000693689846647316</v>
       </c>
       <c r="F48">
-        <v>-0.03274196685258094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.002315331027302605</v>
+      </c>
+      <c r="G48">
+        <v>-0.01724684994954474</v>
+      </c>
+      <c r="H48">
+        <v>-0.02072648978141984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08406737561657625</v>
+        <v>-0.06332019836877815</v>
       </c>
       <c r="C50">
-        <v>-0.03075854261641274</v>
+        <v>0.04642436784419074</v>
       </c>
       <c r="D50">
-        <v>-0.03646708536503448</v>
+        <v>0.04124772988258746</v>
       </c>
       <c r="E50">
-        <v>-0.02233124331640715</v>
+        <v>-0.016678529029402</v>
       </c>
       <c r="F50">
-        <v>-0.0167774985777364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.003131636519120515</v>
+      </c>
+      <c r="G50">
+        <v>-0.006641758179753346</v>
+      </c>
+      <c r="H50">
+        <v>0.0155577750070535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01953777894398683</v>
+        <v>-0.01544952522653738</v>
       </c>
       <c r="C51">
-        <v>-0.004631438990890274</v>
+        <v>0.003574495134143994</v>
       </c>
       <c r="D51">
-        <v>-0.002307926617531006</v>
+        <v>0.01121662200980964</v>
       </c>
       <c r="E51">
-        <v>-0.003297724775683245</v>
+        <v>-0.007583764587900926</v>
       </c>
       <c r="F51">
-        <v>-0.08361062921332039</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.003406498920309499</v>
+      </c>
+      <c r="G51">
+        <v>-0.0314479907891684</v>
+      </c>
+      <c r="H51">
+        <v>-0.04531237403425053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09026909012879604</v>
+        <v>-0.07724903108166285</v>
       </c>
       <c r="C53">
-        <v>-0.05088521392909424</v>
+        <v>0.07252259362758962</v>
       </c>
       <c r="D53">
-        <v>-0.03508684852883433</v>
+        <v>0.06948970660827848</v>
       </c>
       <c r="E53">
-        <v>-0.04145527161877786</v>
+        <v>-0.01008838617339276</v>
       </c>
       <c r="F53">
-        <v>0.0387564231311053</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02931709968209683</v>
+      </c>
+      <c r="G53">
+        <v>0.02424196715633201</v>
+      </c>
+      <c r="H53">
+        <v>0.02926471873258027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02385929240961726</v>
+        <v>-0.02465410725215401</v>
       </c>
       <c r="C54">
-        <v>-0.001422252895197187</v>
+        <v>0.003509149506556462</v>
       </c>
       <c r="D54">
-        <v>-0.002627646718725742</v>
+        <v>-0.007438272160469439</v>
       </c>
       <c r="E54">
-        <v>-0.01469852682710088</v>
+        <v>-0.006187217118566838</v>
       </c>
       <c r="F54">
-        <v>-0.0315146507676003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.006977966269400941</v>
+      </c>
+      <c r="G54">
+        <v>-0.03912052092921021</v>
+      </c>
+      <c r="H54">
+        <v>-0.0001194627624314902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08690943210617376</v>
+        <v>-0.05963808133961256</v>
       </c>
       <c r="C55">
-        <v>-0.04585840661329724</v>
+        <v>0.06526290189172373</v>
       </c>
       <c r="D55">
-        <v>-0.04213738646472933</v>
+        <v>0.06430712747961252</v>
       </c>
       <c r="E55">
-        <v>-0.03417175563948634</v>
+        <v>-0.00948130438092146</v>
       </c>
       <c r="F55">
-        <v>0.03929279334469813</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01696246860705169</v>
+      </c>
+      <c r="G55">
+        <v>0.007836085527061502</v>
+      </c>
+      <c r="H55">
+        <v>0.03714028636327116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1282124051015688</v>
+        <v>-0.1025781851566358</v>
       </c>
       <c r="C56">
-        <v>-0.07765536823942312</v>
+        <v>0.09819511966366888</v>
       </c>
       <c r="D56">
-        <v>-0.022706766752001</v>
+        <v>0.0853874903375636</v>
       </c>
       <c r="E56">
-        <v>-0.08275525349025284</v>
+        <v>-0.01017339658146947</v>
       </c>
       <c r="F56">
-        <v>0.06794337802069118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05669328625778241</v>
+      </c>
+      <c r="G56">
+        <v>0.04787378745384829</v>
+      </c>
+      <c r="H56">
+        <v>0.06536208032170929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03948735261807775</v>
+        <v>-0.028384655141484</v>
       </c>
       <c r="C57">
-        <v>-0.03278779210302096</v>
+        <v>0.00582709372400977</v>
       </c>
       <c r="D57">
-        <v>-0.02467587968904254</v>
+        <v>0.04028005321665098</v>
       </c>
       <c r="E57">
-        <v>0.01403098427273761</v>
+        <v>0.01126582901550818</v>
       </c>
       <c r="F57">
-        <v>-0.05128202149474426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.009431257612459816</v>
+      </c>
+      <c r="G57">
+        <v>-0.06332352380414789</v>
+      </c>
+      <c r="H57">
+        <v>-0.05500716189614466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1481648022137149</v>
+        <v>-0.1009599188883005</v>
       </c>
       <c r="C58">
-        <v>-0.2044812980438813</v>
+        <v>0.1191669573040472</v>
       </c>
       <c r="D58">
-        <v>-0.2289323412415747</v>
+        <v>0.1440537296885767</v>
       </c>
       <c r="E58">
-        <v>-0.02271979416578052</v>
+        <v>0.2884673545130101</v>
       </c>
       <c r="F58">
-        <v>-0.5210973463281581</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.254969747603413</v>
+      </c>
+      <c r="G58">
+        <v>-0.7943319717422485</v>
+      </c>
+      <c r="H58">
+        <v>0.3083773779146982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05460472063826533</v>
+        <v>-0.1973163118166229</v>
       </c>
       <c r="C59">
-        <v>-0.0266635719712783</v>
+        <v>-0.09002249593263445</v>
       </c>
       <c r="D59">
-        <v>0.1805741808113208</v>
+        <v>-0.1655086850060089</v>
       </c>
       <c r="E59">
-        <v>0.03438631085033809</v>
+        <v>0.007682491912443461</v>
       </c>
       <c r="F59">
-        <v>-0.09349762994465215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.006803064000545081</v>
+      </c>
+      <c r="G59">
+        <v>-0.01846862856858906</v>
+      </c>
+      <c r="H59">
+        <v>-0.02006537249772959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1342081509376545</v>
+        <v>-0.2089832472726087</v>
       </c>
       <c r="C60">
-        <v>-0.1116370445890338</v>
+        <v>0.04139381427841228</v>
       </c>
       <c r="D60">
-        <v>-0.004077348170982594</v>
+        <v>0.0292962698083647</v>
       </c>
       <c r="E60">
-        <v>0.02029510411995139</v>
+        <v>0.05207774505164937</v>
       </c>
       <c r="F60">
-        <v>-0.172599896989847</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07332427110119397</v>
+      </c>
+      <c r="G60">
+        <v>-0.01901089081250098</v>
+      </c>
+      <c r="H60">
+        <v>-0.3793162017049501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01996236467276043</v>
+        <v>-0.01444514099999205</v>
       </c>
       <c r="C61">
-        <v>-0.01024918207300719</v>
+        <v>0.03672539986504707</v>
       </c>
       <c r="D61">
-        <v>-0.04512109160992714</v>
+        <v>0.04810837594566184</v>
       </c>
       <c r="E61">
-        <v>-0.009288554633720705</v>
+        <v>-0.002591723104721673</v>
       </c>
       <c r="F61">
-        <v>-0.01681538227447981</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01705893876543274</v>
+      </c>
+      <c r="G61">
+        <v>-0.02137386960331333</v>
+      </c>
+      <c r="H61">
+        <v>-0.05977060507493081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01241201425644352</v>
+        <v>-0.007104253809042764</v>
       </c>
       <c r="C63">
-        <v>-0.003787313726660924</v>
+        <v>0.008403112574631633</v>
       </c>
       <c r="D63">
-        <v>-0.02447457484343293</v>
+        <v>0.02116823057384318</v>
       </c>
       <c r="E63">
-        <v>-0.002444303781622529</v>
+        <v>-0.007792602061993455</v>
       </c>
       <c r="F63">
-        <v>-0.006122691523614042</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.003220927221451339</v>
+      </c>
+      <c r="G63">
+        <v>-0.01397442668742624</v>
+      </c>
+      <c r="H63">
+        <v>-0.01534422801410262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03356479751753531</v>
+        <v>-0.03650788231200504</v>
       </c>
       <c r="C64">
-        <v>-0.0009580704109792943</v>
+        <v>0.02605111628525859</v>
       </c>
       <c r="D64">
-        <v>-0.03329339489100931</v>
+        <v>0.03210560093262755</v>
       </c>
       <c r="E64">
-        <v>-0.01877081566297974</v>
+        <v>-0.01570910561205679</v>
       </c>
       <c r="F64">
-        <v>-0.01752402143925903</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.005725068885969134</v>
+      </c>
+      <c r="G64">
+        <v>0.01063744929317761</v>
+      </c>
+      <c r="H64">
+        <v>-0.05047862131650362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03593389573114029</v>
+        <v>-0.03747442203687304</v>
       </c>
       <c r="C65">
-        <v>-0.0135532769762255</v>
+        <v>0.03906496418759615</v>
       </c>
       <c r="D65">
-        <v>-0.03886840177475051</v>
+        <v>0.06728687468319024</v>
       </c>
       <c r="E65">
-        <v>-0.02401293335784319</v>
+        <v>-0.007739431831300482</v>
       </c>
       <c r="F65">
-        <v>-0.004172280184291562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04518997931615878</v>
+      </c>
+      <c r="G65">
+        <v>0.000539226624053896</v>
+      </c>
+      <c r="H65">
+        <v>-0.07319334330453064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0332189457727055</v>
+        <v>-0.01565033630770386</v>
       </c>
       <c r="C66">
-        <v>-0.0311241749244235</v>
+        <v>0.06467229422589696</v>
       </c>
       <c r="D66">
-        <v>-0.06639354343176593</v>
+        <v>0.09060292914420273</v>
       </c>
       <c r="E66">
-        <v>-0.04118343069748481</v>
+        <v>0.008108796148061953</v>
       </c>
       <c r="F66">
-        <v>-0.03065197373686966</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.0345976284360769</v>
+      </c>
+      <c r="G66">
+        <v>-0.02918129677704736</v>
+      </c>
+      <c r="H66">
+        <v>-0.08769583279080874</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02088520997578224</v>
+        <v>-0.04681421400335537</v>
       </c>
       <c r="C67">
-        <v>-0.01670694872378543</v>
+        <v>0.02489308539351545</v>
       </c>
       <c r="D67">
-        <v>0.005897177207220738</v>
+        <v>0.01137680977237278</v>
       </c>
       <c r="E67">
-        <v>0.008532256342977244</v>
+        <v>0.001655391829190627</v>
       </c>
       <c r="F67">
-        <v>-0.02594131081301849</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01705678078096812</v>
+      </c>
+      <c r="G67">
+        <v>-0.01419067413772615</v>
+      </c>
+      <c r="H67">
+        <v>-0.03417179872356302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06742368267407318</v>
+        <v>-0.1991687554110308</v>
       </c>
       <c r="C68">
-        <v>-0.02169948137036879</v>
+        <v>-0.1214241841948381</v>
       </c>
       <c r="D68">
-        <v>0.2101416450643755</v>
+        <v>-0.1744915240370572</v>
       </c>
       <c r="E68">
-        <v>0.04611137942884293</v>
+        <v>0.009551373888180769</v>
       </c>
       <c r="F68">
-        <v>-0.08692162557750983</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04651001487419297</v>
+      </c>
+      <c r="G68">
+        <v>-0.0254454535013226</v>
+      </c>
+      <c r="H68">
+        <v>0.04368972766578924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05934329111531132</v>
+        <v>-0.05870879242120356</v>
       </c>
       <c r="C69">
-        <v>-0.03725983213723764</v>
+        <v>0.04782473275625615</v>
       </c>
       <c r="D69">
-        <v>-0.01711921148977829</v>
+        <v>0.03378974010804145</v>
       </c>
       <c r="E69">
-        <v>-0.03809352413480633</v>
+        <v>-0.005099825711657711</v>
       </c>
       <c r="F69">
-        <v>-0.00570198165758978</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02919512942746397</v>
+      </c>
+      <c r="G69">
+        <v>0.006763602085934873</v>
+      </c>
+      <c r="H69">
+        <v>-0.009646153276596577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07696836247575858</v>
+        <v>-0.1797947047411106</v>
       </c>
       <c r="C71">
-        <v>-0.03243900035323103</v>
+        <v>-0.0902635494855729</v>
       </c>
       <c r="D71">
-        <v>0.2110075999046668</v>
+        <v>-0.1433952951856654</v>
       </c>
       <c r="E71">
-        <v>0.08199884352099626</v>
+        <v>0.01417308124019452</v>
       </c>
       <c r="F71">
-        <v>-0.09067122775151053</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05773375912227408</v>
+      </c>
+      <c r="G71">
+        <v>-0.02855487195925044</v>
+      </c>
+      <c r="H71">
+        <v>0.02279175901376823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09834865293360823</v>
+        <v>-0.06177087174621747</v>
       </c>
       <c r="C72">
-        <v>-0.07674998752127579</v>
+        <v>0.07956948727999684</v>
       </c>
       <c r="D72">
-        <v>-0.06994143125741699</v>
+        <v>0.07153779422444281</v>
       </c>
       <c r="E72">
-        <v>-0.09040293841926805</v>
+        <v>0.01455245155881478</v>
       </c>
       <c r="F72">
-        <v>-0.06829035442603518</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07221939614430917</v>
+      </c>
+      <c r="G72">
+        <v>-0.03031264094086834</v>
+      </c>
+      <c r="H72">
+        <v>-0.1000465145135207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1761703200921528</v>
+        <v>-0.2739275463125491</v>
       </c>
       <c r="C73">
-        <v>-0.1820225563080381</v>
+        <v>0.08509510965456385</v>
       </c>
       <c r="D73">
-        <v>0.01145896091271947</v>
+        <v>0.08609200021933074</v>
       </c>
       <c r="E73">
-        <v>0.06042979266107684</v>
+        <v>0.09408854990877291</v>
       </c>
       <c r="F73">
-        <v>-0.2126989476732889</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08285338565490458</v>
+      </c>
+      <c r="G73">
+        <v>-0.02465880091575085</v>
+      </c>
+      <c r="H73">
+        <v>-0.4816067693444617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1191125938333584</v>
+        <v>-0.09969064654448662</v>
       </c>
       <c r="C74">
-        <v>-0.0710402842496136</v>
+        <v>0.09989422534025343</v>
       </c>
       <c r="D74">
-        <v>-0.02497747502984243</v>
+        <v>0.08902838504475254</v>
       </c>
       <c r="E74">
-        <v>-0.04533688551522617</v>
+        <v>-0.01148948554496035</v>
       </c>
       <c r="F74">
-        <v>0.07973602609245696</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03991491193583789</v>
+      </c>
+      <c r="G74">
+        <v>0.03416872866146717</v>
+      </c>
+      <c r="H74">
+        <v>0.03706519281953844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2051962533806682</v>
+        <v>-0.2036536791335064</v>
       </c>
       <c r="C75">
-        <v>-0.1379223691309145</v>
+        <v>0.1715385141104696</v>
       </c>
       <c r="D75">
-        <v>-0.01660083792659448</v>
+        <v>0.1370996560237595</v>
       </c>
       <c r="E75">
-        <v>-0.1532953856962413</v>
+        <v>-0.008951464572178007</v>
       </c>
       <c r="F75">
-        <v>0.1215976976296315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1064932958896314</v>
+      </c>
+      <c r="G75">
+        <v>0.08428219033589926</v>
+      </c>
+      <c r="H75">
+        <v>0.1482429947784791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2530881602868948</v>
+        <v>-0.1620357373248655</v>
       </c>
       <c r="C76">
-        <v>-0.1231714957092407</v>
+        <v>0.1568946197474009</v>
       </c>
       <c r="D76">
-        <v>-0.023245157677041</v>
+        <v>0.1279677004847077</v>
       </c>
       <c r="E76">
-        <v>-0.1818673154767208</v>
+        <v>-0.04756317351426397</v>
       </c>
       <c r="F76">
-        <v>0.1990938887534023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09237917363241885</v>
+      </c>
+      <c r="G76">
+        <v>0.07266676794788529</v>
+      </c>
+      <c r="H76">
+        <v>0.1238067524304433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09644164212254393</v>
+        <v>-0.053887207571634</v>
       </c>
       <c r="C77">
-        <v>-0.07275247986319758</v>
+        <v>0.05068993193188144</v>
       </c>
       <c r="D77">
-        <v>-0.1203990130815005</v>
+        <v>0.07578139442815379</v>
       </c>
       <c r="E77">
-        <v>0.04083208547671609</v>
+        <v>0.01972275566887904</v>
       </c>
       <c r="F77">
-        <v>-0.1216061817656721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03552582040808838</v>
+      </c>
+      <c r="G77">
+        <v>-0.06343574125057737</v>
+      </c>
+      <c r="H77">
+        <v>-0.02809651103676245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06046590394026755</v>
+        <v>-0.02982262754310011</v>
       </c>
       <c r="C78">
-        <v>-0.0294609980022662</v>
+        <v>0.0482903409312132</v>
       </c>
       <c r="D78">
-        <v>-0.1200691318500034</v>
+        <v>0.06312617380528197</v>
       </c>
       <c r="E78">
-        <v>-0.03013387941480292</v>
+        <v>-0.005367568649632263</v>
       </c>
       <c r="F78">
-        <v>-0.07225061960558518</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01265795359528346</v>
+      </c>
+      <c r="G78">
+        <v>-0.05354018155668482</v>
+      </c>
+      <c r="H78">
+        <v>-0.09521899174144409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5662630118607421</v>
+        <v>-0.1133368461749658</v>
       </c>
       <c r="C80">
-        <v>0.8040577710916548</v>
+        <v>0.07168074351784684</v>
       </c>
       <c r="D80">
-        <v>-0.07639476853903465</v>
+        <v>0.07993611013663644</v>
       </c>
       <c r="E80">
-        <v>0.04544507043796079</v>
+        <v>-0.9085509917183086</v>
       </c>
       <c r="F80">
-        <v>-0.04398482187257843</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2960990001260839</v>
+      </c>
+      <c r="G80">
+        <v>-0.1690906727396278</v>
+      </c>
+      <c r="H80">
+        <v>-0.02036621400300334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1638939674251675</v>
+        <v>-0.1339202472374537</v>
       </c>
       <c r="C81">
-        <v>-0.09410635106672544</v>
+        <v>0.1076308389805197</v>
       </c>
       <c r="D81">
-        <v>-0.001960633944903158</v>
+        <v>0.08609864909270419</v>
       </c>
       <c r="E81">
-        <v>-0.1162445376758752</v>
+        <v>-0.0161610499339201</v>
       </c>
       <c r="F81">
-        <v>0.1153049842143219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05989413655165631</v>
+      </c>
+      <c r="G81">
+        <v>0.05036889197406914</v>
+      </c>
+      <c r="H81">
+        <v>0.08005976241582777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03121898333892884</v>
+        <v>-0.02825400466447869</v>
       </c>
       <c r="C83">
-        <v>-0.02640995655781815</v>
+        <v>0.01626916541469933</v>
       </c>
       <c r="D83">
-        <v>-0.03188156119172118</v>
+        <v>0.02255029507967474</v>
       </c>
       <c r="E83">
-        <v>0.01215479695926122</v>
+        <v>0.007873436138154163</v>
       </c>
       <c r="F83">
-        <v>-0.05664759301410798</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.004718394422263219</v>
+      </c>
+      <c r="G83">
+        <v>-0.0382856678242139</v>
+      </c>
+      <c r="H83">
+        <v>-0.04435249380765732</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2286902423443257</v>
+        <v>-0.1940057568544916</v>
       </c>
       <c r="C85">
-        <v>-0.1383137262756865</v>
+        <v>0.1608300069366103</v>
       </c>
       <c r="D85">
-        <v>-0.02170332750037656</v>
+        <v>0.1462644710948174</v>
       </c>
       <c r="E85">
-        <v>-0.1410420145193872</v>
+        <v>-0.008714280688804577</v>
       </c>
       <c r="F85">
-        <v>0.1547824998750743</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1014282556547735</v>
+      </c>
+      <c r="G85">
+        <v>0.1119020966743185</v>
+      </c>
+      <c r="H85">
+        <v>0.07403286493836715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008020183095196542</v>
+        <v>-0.01561327749263769</v>
       </c>
       <c r="C86">
-        <v>0.002043325816963935</v>
+        <v>0.01927268557960968</v>
       </c>
       <c r="D86">
-        <v>-0.07939436210324943</v>
+        <v>0.0331091250967945</v>
       </c>
       <c r="E86">
-        <v>0.0002009523897896963</v>
+        <v>-0.006016368990808397</v>
       </c>
       <c r="F86">
-        <v>-0.04497058279836891</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01735913404443779</v>
+      </c>
+      <c r="G86">
+        <v>-0.03593922577156061</v>
+      </c>
+      <c r="H86">
+        <v>-0.08199786761657792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03377748431452088</v>
+        <v>-0.01567246873580044</v>
       </c>
       <c r="C87">
-        <v>-0.01830253499725387</v>
+        <v>0.02408623332111557</v>
       </c>
       <c r="D87">
-        <v>-0.0440438945602666</v>
+        <v>0.04063634364550529</v>
       </c>
       <c r="E87">
-        <v>0.000395906908810181</v>
+        <v>0.003481524200613638</v>
       </c>
       <c r="F87">
-        <v>-0.1010726055239987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.006462343905495239</v>
+      </c>
+      <c r="G87">
+        <v>-0.06894343816514852</v>
+      </c>
+      <c r="H87">
+        <v>-0.08786963001612309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02029737012100157</v>
+        <v>-0.04003485725445425</v>
       </c>
       <c r="C88">
-        <v>0.003856806620448634</v>
+        <v>0.0001917548313127601</v>
       </c>
       <c r="D88">
-        <v>0.005938356331228953</v>
+        <v>0.02643386550321267</v>
       </c>
       <c r="E88">
-        <v>-0.01655612160987206</v>
+        <v>-0.02048792646628651</v>
       </c>
       <c r="F88">
-        <v>0.01689845058381248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01696039674692165</v>
+      </c>
+      <c r="G88">
+        <v>0.003975995441748163</v>
+      </c>
+      <c r="H88">
+        <v>-0.01176835354712656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1038501614143364</v>
+        <v>-0.3050263845853958</v>
       </c>
       <c r="C89">
-        <v>-0.04861651407633762</v>
+        <v>-0.1618854216045423</v>
       </c>
       <c r="D89">
-        <v>0.3303785298756981</v>
+        <v>-0.2530033256224618</v>
       </c>
       <c r="E89">
-        <v>0.05396138828065536</v>
+        <v>0.01085320741222774</v>
       </c>
       <c r="F89">
-        <v>-0.1208936506478624</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01594341922260049</v>
+      </c>
+      <c r="G89">
+        <v>0.01691994948392337</v>
+      </c>
+      <c r="H89">
+        <v>0.004817481719291001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09181304172382362</v>
+        <v>-0.2557498065307724</v>
       </c>
       <c r="C90">
-        <v>-0.01914604713767709</v>
+        <v>-0.150658563268856</v>
       </c>
       <c r="D90">
-        <v>0.3592547550803064</v>
+        <v>-0.2352568783476479</v>
       </c>
       <c r="E90">
-        <v>0.08474621823231983</v>
+        <v>0.003960433744475413</v>
       </c>
       <c r="F90">
-        <v>-0.06068612264750619</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05997360695578064</v>
+      </c>
+      <c r="G90">
+        <v>0.006371707253375394</v>
+      </c>
+      <c r="H90">
+        <v>0.0574102064518767</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2579319422666657</v>
+        <v>-0.2003468855841744</v>
       </c>
       <c r="C91">
-        <v>-0.1767694130067748</v>
+        <v>0.1594338503557213</v>
       </c>
       <c r="D91">
-        <v>-0.01243025326572963</v>
+        <v>0.1253107834151933</v>
       </c>
       <c r="E91">
-        <v>-0.1248900326930728</v>
+        <v>0.00208356759642546</v>
       </c>
       <c r="F91">
-        <v>0.2400400850486686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08765581874735741</v>
+      </c>
+      <c r="G91">
+        <v>0.1031448159846221</v>
+      </c>
+      <c r="H91">
+        <v>0.168102117902178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1599660480248043</v>
+        <v>-0.2782292741415814</v>
       </c>
       <c r="C92">
-        <v>-0.07006233308077559</v>
+        <v>-0.05458548040011642</v>
       </c>
       <c r="D92">
-        <v>0.4204644890875105</v>
+        <v>-0.1891867212582712</v>
       </c>
       <c r="E92">
-        <v>-0.07523134316326897</v>
+        <v>-0.00611465656432878</v>
       </c>
       <c r="F92">
-        <v>0.03053339019540033</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.003621513535235274</v>
+      </c>
+      <c r="G92">
+        <v>-0.03611819478722367</v>
+      </c>
+      <c r="H92">
+        <v>0.1522860967131804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09140832837057029</v>
+        <v>-0.2857723457235413</v>
       </c>
       <c r="C93">
-        <v>-0.05865533731329171</v>
+        <v>-0.1432431194090875</v>
       </c>
       <c r="D93">
-        <v>0.4269068634635479</v>
+        <v>-0.2423940804521664</v>
       </c>
       <c r="E93">
-        <v>0.1127480904910339</v>
+        <v>0.03307788397409545</v>
       </c>
       <c r="F93">
-        <v>-0.07855006548365689</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0512448481193364</v>
+      </c>
+      <c r="G93">
+        <v>0.01285763674921866</v>
+      </c>
+      <c r="H93">
+        <v>0.00496626646477514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2504807909565183</v>
+        <v>-0.2507873445280838</v>
       </c>
       <c r="C94">
-        <v>-0.1815304271228213</v>
+        <v>0.1708924626546249</v>
       </c>
       <c r="D94">
-        <v>-0.007505583346053214</v>
+        <v>0.149963363974988</v>
       </c>
       <c r="E94">
-        <v>-0.2306032807560824</v>
+        <v>0.004840312190849171</v>
       </c>
       <c r="F94">
-        <v>0.1898562637261676</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2234435661619105</v>
+      </c>
+      <c r="G94">
+        <v>0.1800096132468814</v>
+      </c>
+      <c r="H94">
+        <v>0.3849542044311031</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01805244274412285</v>
+        <v>-0.03209424222899385</v>
       </c>
       <c r="C95">
-        <v>-0.08696398440385837</v>
+        <v>0.0687064227849328</v>
       </c>
       <c r="D95">
-        <v>-0.05477147921760177</v>
+        <v>0.06834759430112546</v>
       </c>
       <c r="E95">
-        <v>0.001648577725351833</v>
+        <v>0.08190488248185451</v>
       </c>
       <c r="F95">
-        <v>-0.001948191611325071</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02028468565261741</v>
+      </c>
+      <c r="G95">
+        <v>-0.03958486767375399</v>
+      </c>
+      <c r="H95">
+        <v>-0.03669679765566095</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1423762113657861</v>
+        <v>-0.1876066001396067</v>
       </c>
       <c r="C98">
-        <v>-0.1195355019430933</v>
+        <v>0.06922538303249123</v>
       </c>
       <c r="D98">
-        <v>0.009952310297752055</v>
+        <v>0.02523407621354372</v>
       </c>
       <c r="E98">
-        <v>0.05384960468533331</v>
+        <v>0.06664964023540686</v>
       </c>
       <c r="F98">
-        <v>-0.1762480016602672</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01236464767313155</v>
+      </c>
+      <c r="G98">
+        <v>-0.06183611354118384</v>
+      </c>
+      <c r="H98">
+        <v>-0.3324560796022807</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007224849252100678</v>
+        <v>-0.009280056492662059</v>
       </c>
       <c r="C101">
-        <v>0.002802408656099842</v>
+        <v>0.007895344643352039</v>
       </c>
       <c r="D101">
-        <v>-0.06789400812544369</v>
+        <v>0.01810448291122814</v>
       </c>
       <c r="E101">
-        <v>-0.03262765723793689</v>
+        <v>0.001456863420578462</v>
       </c>
       <c r="F101">
-        <v>-0.1650307440476562</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.006278013694027315</v>
+      </c>
+      <c r="G101">
+        <v>-0.09779235465517608</v>
+      </c>
+      <c r="H101">
+        <v>0.008549894131669034</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1038000386426737</v>
+        <v>-0.0956632059114369</v>
       </c>
       <c r="C102">
-        <v>-0.05931544652705081</v>
+        <v>0.06920064118617802</v>
       </c>
       <c r="D102">
-        <v>-0.01303930197120537</v>
+        <v>0.07087035026368001</v>
       </c>
       <c r="E102">
-        <v>-0.07181283075085905</v>
+        <v>-0.00892955311356897</v>
       </c>
       <c r="F102">
-        <v>0.0952258959394022</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05302783370975031</v>
+      </c>
+      <c r="G102">
+        <v>0.05111884859432913</v>
+      </c>
+      <c r="H102">
+        <v>0.0611183563386779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04243826458162228</v>
+        <v>-0.01238570243801356</v>
       </c>
       <c r="C103">
-        <v>-0.01126252993433569</v>
+        <v>0.01309446374316222</v>
       </c>
       <c r="D103">
-        <v>-0.02483270262452007</v>
+        <v>0.01355403080141357</v>
       </c>
       <c r="E103">
-        <v>-0.03743666963178799</v>
+        <v>-0.01267735090728233</v>
       </c>
       <c r="F103">
-        <v>0.008327173005000677</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.003811336564282086</v>
+      </c>
+      <c r="G103">
+        <v>-0.006279174940454226</v>
+      </c>
+      <c r="H103">
+        <v>0.01275706551968073</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1262353864623111</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.7849019566723788</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.5826346539914853</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03045720784362672</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.124040983676005</v>
+      </c>
+      <c r="G104">
+        <v>-0.02229652590428971</v>
+      </c>
+      <c r="H104">
+        <v>0.05173925783138451</v>
       </c>
     </row>
   </sheetData>
